--- a/Team_Tasks.xlsx
+++ b/Team_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHE_Group_E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92413ED4-570C-40C6-BB0A-394C34EEC08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45185C6-ABBC-4E3E-9A26-CC573D6C8F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -608,7 +608,9 @@
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
